--- a/文档/项目组内文档/高仿小米官网的进度.xlsx
+++ b/文档/项目组内文档/高仿小米官网的进度.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10350"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="45">
   <si>
     <t>项目名称</t>
   </si>
@@ -144,7 +144,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>热评产品，详情页面内容1</t>
+    <t>热评产品,注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页面部分内容1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页面部分内容1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -153,6 +165,22 @@
   </si>
   <si>
     <t>详情页面部分内容3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页面部分内容4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目总结报告，详细设计说明书，项目周报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目答辩PPT，概要设计说明书，问题管理表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件需求规格说明书，代码自测结果表，用户手册</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -311,27 +339,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -341,6 +348,27 @@
     <xf numFmtId="14" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -642,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H24"/>
+  <dimension ref="A2:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -662,109 +690,109 @@
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="15.6" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="18">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" ht="18">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" ht="18">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="B8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" ht="18">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="B9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="1"/>
@@ -785,14 +813,14 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="18">
       <c r="A13" s="6" t="s">
@@ -824,7 +852,7 @@
       <c r="C14" s="3">
         <v>42949</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="13">
         <v>42950</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -844,7 +872,7 @@
       <c r="C15" s="3">
         <v>42949</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="14">
         <v>42950</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -864,7 +892,7 @@
       <c r="C16" s="11">
         <v>42949</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="15">
         <v>42950</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -877,8 +905,8 @@
     <row r="17" spans="1:6">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="23"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
@@ -892,8 +920,8 @@
       <c r="C18" s="3">
         <v>42951</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>32</v>
+      <c r="D18" s="10">
+        <v>42952</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -912,8 +940,8 @@
       <c r="C19" s="3">
         <v>42951</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>32</v>
+      <c r="D19" s="9">
+        <v>42952</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>20</v>
@@ -932,8 +960,8 @@
       <c r="C20" s="11">
         <v>42951</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>32</v>
+      <c r="D20" s="12">
+        <v>42952</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>20</v>
@@ -950,7 +978,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="3">
-        <v>42952</v>
+        <v>42954</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>32</v>
@@ -970,7 +998,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="3">
-        <v>42952</v>
+        <v>42954</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>32</v>
@@ -990,7 +1018,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="11">
-        <v>42952</v>
+        <v>42954</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>33</v>
@@ -999,6 +1027,186 @@
         <v>20</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="3">
+        <v>42955</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="3">
+        <v>42955</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="11">
+        <v>42955</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="3">
+        <v>42956</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="3">
+        <v>42956</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="11">
+        <v>42956</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="3">
+        <v>42957</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="3">
+        <v>42957</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="11">
+        <v>42957</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>15</v>
       </c>
     </row>

--- a/文档/项目组内文档/高仿小米官网的进度.xlsx
+++ b/文档/项目组内文档/高仿小米官网的进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
   <si>
     <t>项目名称</t>
   </si>
@@ -181,6 +181,14 @@
   </si>
   <si>
     <t>软件需求规格说明书，代码自测结果表，用户手册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    2017/8/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    2017/8/7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -672,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -918,7 +926,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="3">
-        <v>42951</v>
+        <v>42952</v>
       </c>
       <c r="D18" s="10">
         <v>42952</v>
@@ -938,7 +946,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="3">
-        <v>42951</v>
+        <v>42952</v>
       </c>
       <c r="D19" s="9">
         <v>42952</v>
@@ -958,7 +966,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="11">
-        <v>42951</v>
+        <v>42952</v>
       </c>
       <c r="D20" s="12">
         <v>42952</v>
@@ -980,8 +988,8 @@
       <c r="C22" s="3">
         <v>42954</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>32</v>
+      <c r="D22" s="13">
+        <v>42955</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
@@ -1000,8 +1008,8 @@
       <c r="C23" s="3">
         <v>42954</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>32</v>
+      <c r="D23" s="14">
+        <v>42955</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>20</v>
@@ -1021,7 +1029,7 @@
         <v>42954</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>20</v>
@@ -1040,8 +1048,8 @@
       <c r="C26" s="3">
         <v>42955</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>32</v>
+      <c r="D26" s="10">
+        <v>42955</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>20</v>
@@ -1060,8 +1068,8 @@
       <c r="C27" s="3">
         <v>42955</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>32</v>
+      <c r="D27" s="9">
+        <v>42955</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>20</v>
@@ -1081,7 +1089,7 @@
         <v>42955</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>20</v>
@@ -1100,8 +1108,8 @@
       <c r="C30" s="3">
         <v>42956</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>32</v>
+      <c r="D30" s="10">
+        <v>42955</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>20</v>
@@ -1120,8 +1128,8 @@
       <c r="C31" s="3">
         <v>42956</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>32</v>
+      <c r="D31" s="9">
+        <v>42955</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>20</v>
@@ -1141,7 +1149,7 @@
         <v>42956</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>20</v>

--- a/文档/项目组内文档/高仿小米官网的进度.xlsx
+++ b/文档/项目组内文档/高仿小米官网的进度.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10350"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -207,6 +208,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -681,7 +683,7 @@
   <dimension ref="A2:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
